--- a/03.crawler/05.Standard/file/4.collate/crawler_1.xlsx
+++ b/03.crawler/05.Standard/file/4.collate/crawler_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,129 +441,129 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Part Number</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Partdesc_En</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Partlongdesc_En</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pop</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Qtyeach</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Vehicle</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Picture</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Url</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Type-1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Type-2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Attachment Method</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Color/Finish</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Connector Gender</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Connector Quantity</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Connector Shape</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Contents</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Finish</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Gaskets Included</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Hardware included</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Length - Inches</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Length - mm</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Material</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Mounting Type</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Number of Wires</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Partdesc_En</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Partlongdesc_En</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Pop</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Qtyeach</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Service</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Site</t>
-        </is>
-      </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Terminal Gender</t>
@@ -591,17 +591,22 @@
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Webbase</t>
+          <t>Json_Src</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Json_Src</t>
+          <t>Json_Type</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Json_Spec</t>
+          <t>Json_Info</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Json_Specification</t>
         </is>
       </c>
     </row>
@@ -611,76 +616,73 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CCR-3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>STI</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CCR-3</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>Clutch Starter Safety / Cruise Release Switch</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Clutch Starter Safety / Cruise Release Switch</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Kia Sephia (01-94)
 Kia Spectra (04-00)
 Kia Sportage (00-95)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=CCR-3&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://www.standardbrand.com/en/ecatalog?part=CCR3&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Switch - Clutch Starter Safety</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Switch - Cruise Control Release</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety / Cruise Release Switch</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety / Cruise Release Switch</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr">
         <is>
           <t>Male</t>
@@ -704,15 +706,20 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>CCR3</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=lyZLKcNT6hOguYlO0X7TiSYF4nkLByFFki+PA/U85obZF1f8c92iBGL32PrFFzjl5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvomZtBZagBVAcMAeOApGqYBw==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=lyZLKcNT6hOguYlO0X7TiSYF4nkLByFFki+PA/U85obZF1f8c92iBI7EBIbNw+Iv5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvomZtBZagBVAcMAeOApGqYBw==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=lyZLKcNT6hOguYlO0X7TiSYF4nkLByFFki+PA/U85obZF1f8c92iBH5GBWYcbQEZ5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvomZtBZagBVAcMAeOApGqYBw=="}</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=lyZLKcNT6hOguYlO0X7TiSYF4nkLByFFki+PA/U85obZF1f8c92iBGL32PrFFzjl5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NOl7YolOiMBrRlx4ftRt81KYNBHncM0ORI=", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=lyZLKcNT6hOguYlO0X7TiSYF4nkLByFFki+PA/U85obZF1f8c92iBI7EBIbNw+Iv5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NOl7YolOiMBrRlx4ftRt81KYNBHncM0ORI=", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=lyZLKcNT6hOguYlO0X7TiSYF4nkLByFFki+PA/U85obZF1f8c92iBH5GBWYcbQEZ5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NOl7YolOiMBrRlx4ftRt81KYNBHncM0ORI="}</t>
+          <t>{"0": "Switch - Clutch Starter Safety", "1": "Switch - Cruise Control Release"}</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
+        <is>
+          <t>{"Brand": "STI", "Partdesc_En": "Clutch Starter Safety / Cruise Release Switch", "Partlongdesc_En": "Clutch Starter Safety / Cruise Release Switch", "Pop": "F", "Qtyeach": 1}</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Gender": "Female"}, "2": {"Terminal Quantity": "2"}, "3": {"Terminal Gender": "Male"}, "4": {"Terminal Type": "Blade"}}</t>
         </is>
@@ -724,86 +731,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CCR-6</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>STI</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CCR-6</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Clutch Starter Safety / Cruise Release Switch</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Clutch Starter Safety / Cruise Release Switch</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Porsche 911 (96-94)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=CCR-6&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://www.standardbrand.com/en/ecatalog?part=CCR6&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Switch - Clutch Starter Safety</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Switch - Cruise Control Release</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Gray</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Switch</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Dichromate, Plastic</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Switch</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Dichromate, Plastic</t>
+        </is>
+      </c>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety / Cruise Release Switch</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety / Cruise Release Switch</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
           <t>Male</t>
@@ -827,15 +831,20 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>CCR6</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=lyZLKcNT6hPoV1d4zmvKHCYF4nkLByFFki+PA/U85oaJC1KyNZYpi2L32PrFFzjl5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvoZT8+sROkK5MMAeOApGqYBw==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=lyZLKcNT6hPoV1d4zmvKHCYF4nkLByFFki+PA/U85oaJC1KyNZYpi47EBIbNw+Iv5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvoZT8+sROkK5MMAeOApGqYBw=="}</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=lyZLKcNT6hPoV1d4zmvKHCYF4nkLByFFki+PA/U85oaJC1KyNZYpi2L32PrFFzjl5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NOl7YolOiMBrRlx4ftRt81KJMopbzXE6FQ=", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=lyZLKcNT6hPoV1d4zmvKHCYF4nkLByFFki+PA/U85oaJC1KyNZYpi47EBIbNw+Iv5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NOl7YolOiMBrRlx4ftRt81KJMopbzXE6FQ="}</t>
+          <t>{"0": "Switch - Clutch Starter Safety", "1": "Switch - Cruise Control Release"}</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
+        <is>
+          <t>{"Brand": "STI", "Partdesc_En": "Clutch Starter Safety / Cruise Release Switch", "Partlongdesc_En": "Clutch Starter Safety / Cruise Release Switch", "Pop": "F", "Qtyeach": 1}</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Gender": "Male"}, "2": {"Terminal Quantity": "2"}, "3": {"Terminal Gender": "Male"}, "4": {"Terminal Type": "Blade"}, "5": {"Color/Finish": "Gray"}, "6": {"Finish": "Dichromate, Plastic"}, "7": {"Contents": "Switch"}}</t>
         </is>
@@ -847,86 +856,79 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>CCR-7</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>STD</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>CCR-7</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Clutch Starter Safety Switch</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Clutch Starter Safety Switch</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>Pontiac GTO (05-04)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=CCR-7&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://www.standardbrand.com/en/ecatalog?part=CCR7&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Switch - Clutch Starter Safety</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
         <is>
           <t>Blue, Gray</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Switch</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Plastic</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Switch</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Plastic</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr">
         <is>
           <t>Male</t>
@@ -950,15 +952,20 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>CCR7</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=lyZLKcNT6hPKrZ3OUXIfzSYF4nkLByFFki+PA/U85ob1Ae2/bcUZ5mL32PrFFzjl5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvomZtBZagBVAcMAeOApGqYBw==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=lyZLKcNT6hPKrZ3OUXIfzSYF4nkLByFFki+PA/U85ob1Ae2/bcUZ5jkvNhIZT5vY5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvomZtBZagBVAcMAeOApGqYBw==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=lyZLKcNT6hPKrZ3OUXIfzSYF4nkLByFFki+PA/U85ob1Ae2/bcUZ5o7EBIbNw+Iv5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvomZtBZagBVAcMAeOApGqYBw=="}</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=lyZLKcNT6hPKrZ3OUXIfzSYF4nkLByFFki+PA/U85ob1Ae2/bcUZ5mL32PrFFzjl5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NOl7YolOiMBrRlx4ftRt81KYNBHncM0ORI=", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=lyZLKcNT6hPKrZ3OUXIfzSYF4nkLByFFki+PA/U85ob1Ae2/bcUZ5jkvNhIZT5vY5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NOl7YolOiMBrRlx4ftRt81KYNBHncM0ORI=", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=lyZLKcNT6hPKrZ3OUXIfzSYF4nkLByFFki+PA/U85ob1Ae2/bcUZ5o7EBIbNw+Iv5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NOl7YolOiMBrRlx4ftRt81KYNBHncM0ORI="}</t>
+          <t>{"0": "Switch - Clutch Starter Safety"}</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
+        <is>
+          <t>{"Brand": "STD", "Partdesc_En": "Clutch Starter Safety Switch", "Partlongdesc_En": "Clutch Starter Safety Switch", "Pop": "F", "Qtyeach": 1}</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Gender": "Female"}, "2": {"Terminal Quantity": "2"}, "3": {"Terminal Gender": "Male"}, "4": {"Terminal Type": "Blade"}, "5": {"Color/Finish": "Blue, Gray"}, "6": {"Finish": "Plastic"}, "7": {"Contents": "Switch"}}</t>
         </is>
@@ -970,90 +977,83 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>DS-2282</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>STI</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>DS-2282</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Clutch Starter Safety Switch</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Clutch Starter Safety Switch</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>Toyota Tacoma (05)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-2282&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS2282&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Switch - Clutch Starter Safety</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>Switch</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>Plastic</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
           <t>Male</t>
@@ -1077,15 +1077,20 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>DS2282</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFkK3hpg29lNNPOA3FM8wSUCTuE74rL23eTnRUXFITvZLw0uOWcigyVFnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK4iDVPn4ZlJM4cVJgfZnQKA==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFkK3hpg29lNNPOA3FM8wSUCTuE74rL23eTnRUXFITvZLxVy8k46ml38nRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK4iDVPn4ZlJM4cVJgfZnQKA==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFkK3hpg29lNNPOA3FM8wSUCTuE74rL23eTnRUXFITvZL0w04jGVT8/AnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKrZu7Cn8K35U8mHI0SaQQhK4iDVPn4ZlJM4cVJgfZnQKA=="}</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFkK3hpg29lNNPOA3FM8wSUCTuE74rL23eTnRUXFITvZLw0uOWcigyVFnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKroTqQjDlLzWcHhnHrLS23T5b/3WuCwnReYkCUjotx4/w==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFkK3hpg29lNNPOA3FM8wSUCTuE74rL23eTnRUXFITvZLxVy8k46ml38nRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKroTqQjDlLzWcHhnHrLS23T5b/3WuCwnReYkCUjotx4/w==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=Ops7/J1VsFkK3hpg29lNNPOA3FM8wSUCTuE74rL23eTnRUXFITvZL0w04jGVT8/AnRaSzC3dZmboEyZGCTZQXGS/yUkBUvThK0HZgA1C4AGxzJCtT0EC3h5PFeAkVcMYsJ9MXbl4u4qQsP+xaLsnCfi8uaNCstSIH/vcGamvfKroTqQjDlLzWcHhnHrLS23T5b/3WuCwnReYkCUjotx4/w=="}</t>
+          <t>{"0": "Switch - Clutch Starter Safety"}</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
+        <is>
+          <t>{"Brand": "STI", "Partdesc_En": "Clutch Starter Safety Switch", "Partlongdesc_En": "Clutch Starter Safety Switch", "Pop": "F", "Qtyeach": 1}</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Quantity": "1"}, "2": {"Connector Gender": "Female"}, "3": {"Terminal Quantity": "4"}, "4": {"Terminal Gender": "Male"}, "5": {"Terminal Type": "Blade"}, "6": {"Color/Finish": "Black"}, "7": {"Finish": "Plastic"}, "8": {"Contents": "Switch"}}</t>
         </is>
@@ -1097,15 +1102,33 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>LS-312</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>STI</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>LS-312</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>Back-Up Light Switch</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Back-Up Light Switch</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mazda B2200 (93)
 Mazda B2600 (93-87)
@@ -1113,85 +1136,64 @@
 Mazda Protege (98-95)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=LS-312&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://www.standardbrand.com/en/ecatalog?part=LS312&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Switch - Back-Up Light</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Switch - Clutch Starter Safety</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Snap Fit</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>Metal</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
         <is>
           <t>Metal, Plastic</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr">
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
         <is>
           <t>Metal, Plastic</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>Screw-in</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>Back-Up Light Switch</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Back-Up Light Switch</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
+      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr">
         <is>
           <t>Male</t>
@@ -1215,15 +1217,20 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>LS312</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=X90i7fK58bvuok76NFUFsvXC2fI504HHdVo4tgUyKGhMMvN80vtJr9aJbO3JFZ1ObEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5AACCcPXd7/Mbl8Qg4knWkEFsCIv1tvbOTKd0s9BOH6A/gti8coG3+XsQw7Ujm769w==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=X90i7fK58bvuok76NFUFsvXC2fI504HHdVo4tgUyKGhMMvN80vtJr9nUqswtDXyE+eVEZTDlvl1ajs72oN+Z+iGDgw1SV0P+WgFFQ+xz7yDXzB5hZH05QPA/prADJr19gmbqr6KGmuwwgen7WR8nFEtah1cBll5CK/pu38eDlvT3WIodQfUFdV3A6DWBckYcYroJoMToksiYkCUjotx4/w==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=X90i7fK58bvuok76NFUFsvXC2fI504HHdVo4tgUyKGhMMvN80vtJr/RdenL7hNp8bEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5AACCcPXd7/Mbl8Qg4knWkEFsCIv1tvbOTKd0s9BOH6A/gti8coG3+XsQw7Ujm769w==", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=X90i7fK58bvuok76NFUFsvXC2fI504HHdVo4tgUyKGhMMvN80vtJr1m4v2v7Elz8bEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5AACCcPXd7/Mbl8Qg4knWkEFsCIv1tvbOTKd0s9BOH6A/gti8coG3+XsQw7Ujm769w==", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=X90i7fK58bvuok76NFUFsvXC2fI504HHdVo4tgUyKGhMMvN80vtJrxC55VSuJ7NVbEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5AACCcPXd7/Mbl8Qg4knWkEFsCIv1tvbOTKd0s9BOH6A/gti8coG3+XsQw7Ujm769w==", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=X90i7fK58bvuok76NFUFsvXC2fI504HHdVo4tgUyKGhMMvN80vtJr8MENbY91bGmbEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5AACCcPXd7/Mbl8Qg4knWkEFsCIv1tvbOTKd0s9BOH6A/gti8coG3+XsQw7Ujm769w==", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=X90i7fK58bvuok76NFUFsvXC2fI504HHdVo4tgUyKGhMMvN80vtJrw7rI7UpmxMQbEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5AACCcPXd7/Mbl8Qg4knWkEFsCIv1tvbOTKd0s9BOH6A/gti8coG3+XsQw7Ujm769w==", "7": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=X90i7fK58bvuok76NFUFsvXC2fI504HHdVo4tgUyKGhMMvN80vtJr50IrN4wrw6IbEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5AACCcPXd7/Mbl8Qg4knWkEFsCIv1tvbOTKd0s9BOH6A/gti8coG3+XsQw7Ujm769w=="}</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=X90i7fK58bvuok76NFUFsvXC2fI504HHdVo4tgUyKGhMMvN80vtJr9aJbO3JFZ1ObEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5AACCcPXd7/Mbl8Qg4knWkG60AzJsQudCHHPxerO8b+WTTLH8lYtQzSISW+u5FsC5w==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=X90i7fK58bvuok76NFUFsvXC2fI504HHdVo4tgUyKGhMMvN80vtJr9nUqswtDXyE+eVEZTDlvl1ajs72oN+Z+iGDgw1SV0P+WgFFQ+xz7yDXzB5hZH05QPA/prADJr19gmbqr6KGmuwwgen7WR8nFEtah1cBll5CK/pu38eDlvQG5oYJeh8Fg/dpFTx2s5WjHEzpC75afqnsQw7Ujm769w==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=X90i7fK58bvuok76NFUFsvXC2fI504HHdVo4tgUyKGhMMvN80vtJr/RdenL7hNp8bEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5AACCcPXd7/Mbl8Qg4knWkG60AzJsQudCHHPxerO8b+WTTLH8lYtQzSISW+u5FsC5w==", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=X90i7fK58bvuok76NFUFsvXC2fI504HHdVo4tgUyKGhMMvN80vtJr1m4v2v7Elz8bEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5AACCcPXd7/Mbl8Qg4knWkG60AzJsQudCHHPxerO8b+WTTLH8lYtQzSISW+u5FsC5w==", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=X90i7fK58bvuok76NFUFsvXC2fI504HHdVo4tgUyKGhMMvN80vtJrxC55VSuJ7NVbEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5AACCcPXd7/Mbl8Qg4knWkG60AzJsQudCHHPxerO8b+WTTLH8lYtQzSISW+u5FsC5w==", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=X90i7fK58bvuok76NFUFsvXC2fI504HHdVo4tgUyKGhMMvN80vtJr8MENbY91bGmbEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5AACCcPXd7/Mbl8Qg4knWkG60AzJsQudCHHPxerO8b+WTTLH8lYtQzSISW+u5FsC5w==", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=X90i7fK58bvuok76NFUFsvXC2fI504HHdVo4tgUyKGhMMvN80vtJrw7rI7UpmxMQbEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5AACCcPXd7/Mbl8Qg4knWkG60AzJsQudCHHPxerO8b+WTTLH8lYtQzSISW+u5FsC5w==", "7": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=X90i7fK58bvuok76NFUFsvXC2fI504HHdVo4tgUyKGhMMvN80vtJr50IrN4wrw6IbEHUQlckYE4Nr940p4e30JlpjLqJxiUyybkX50gqLN3gaqOveEiDkBzgNBE5AXOGt3TCYs9b4uHJB2bymKKm5AACCcPXd7/Mbl8Qg4knWkG60AzJsQudCHHPxerO8b+WTTLH8lYtQzSISW+u5FsC5w=="}</t>
+          <t>{"0": "Switch - Back-Up Light", "1": "Switch - Clutch Starter Safety"}</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
+        <is>
+          <t>{"Brand": "STI", "Partdesc_En": "Back-Up Light Switch", "Partlongdesc_En": "Back-Up Light Switch", "Pop": "F", "Qtyeach": 1}</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Quantity": "1"}, "2": {"Connector Gender": "Female"}, "3": {"Terminal Quantity": "2"}, "4": {"Terminal Gender": "Male"}, "5": {"Terminal Type": "Blade"}, "6": {"Attachment Method": "Snap Fit"}, "7": {"Color/Finish": "Metal"}, "8": {"Finish": "Metal, Plastic"}, "9": {"Mounting Type": "Screw-in"}, "10": {"Material": "Metal, Plastic"}}</t>
         </is>
@@ -1235,15 +1242,33 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>NS-35</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>STD</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NS-35</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>Clutch Starter Safety Switch</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Clutch Starter Safety Switch</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Chevrolet Blazer (95), (91-89)
 Chevrolet C1500 (96-88)
@@ -1299,101 +1324,80 @@
 Saturn Vue (07)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=NS-35&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://www.standardbrand.com/en/ecatalog?part=NS35&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Switch - Clutch Starter Safety</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Switch - Neutral Safety</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>Push-in</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Square</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Plastic</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Plastic</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>Male</t>
@@ -1421,15 +1425,20 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>NS35</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=zVtQd3KE+pV+nEasvKl0aCYF4nkLByFFki+PA/U85oYt6hmZ/NEaLGL32PrFFzjl5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvoZT8+sROkK5MMAeOApGqYBw==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=zVtQd3KE+pV+nEasvKl0aCYF4nkLByFFki+PA/U85oYt6hmZ/NEaLBF0jsgbTXciMoN++3vibKFwt4L2VQIuqqI8gQqRXhksH/yt3+AH3F8YzNWgzy6OWffNEK97JV8GMCu7iz6+lF2F1PbcAC3LnHxgEWExZzuIKle/TwcCBTbXgGrkH2EEptn/FL6o3Ebd4UM5jf8dBluISW+u5FsC5w==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=zVtQd3KE+pV+nEasvKl0aCYF4nkLByFFki+PA/U85oYt6hmZ/NEaLDkvNhIZT5vY5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvoZT8+sROkK5MMAeOApGqYBw==", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=zVtQd3KE+pV+nEasvKl0aCYF4nkLByFFki+PA/U85oYt6hmZ/NEaLI7EBIbNw+Iv5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvoZT8+sROkK5MMAeOApGqYBw==", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=zVtQd3KE+pV+nEasvKl0aCYF4nkLByFFki+PA/U85oYt6hmZ/NEaLH5GBWYcbQEZ5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvoZT8+sROkK5MMAeOApGqYBw=="}</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=zVtQd3KE+pV+nEasvKl0aCYF4nkLByFFki+PA/U85oYt6hmZ/NEaLGL32PrFFzjl5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NOl7YolOiMBrRlx4ftRt81KJMopbzXE6FQ=", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=zVtQd3KE+pV+nEasvKl0aCYF4nkLByFFki+PA/U85oYt6hmZ/NEaLBF0jsgbTXciMoN++3vibKFwt4L2VQIuqqI8gQqRXhksH/yt3+AH3F8YzNWgzy6OWffNEK97JV8GMCu7iz6+lF2F1PbcAC3LnHxgEWExZzuIKle/TwcCBTZ1cPgjNth+fNqv/o6zO+1QoMlYBJv3GdEMAeOApGqYBw==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=zVtQd3KE+pV+nEasvKl0aCYF4nkLByFFki+PA/U85oYt6hmZ/NEaLDkvNhIZT5vY5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NOl7YolOiMBrRlx4ftRt81KJMopbzXE6FQ=", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=zVtQd3KE+pV+nEasvKl0aCYF4nkLByFFki+PA/U85oYt6hmZ/NEaLI7EBIbNw+Iv5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NOl7YolOiMBrRlx4ftRt81KJMopbzXE6FQ=", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=zVtQd3KE+pV+nEasvKl0aCYF4nkLByFFki+PA/U85oYt6hmZ/NEaLH5GBWYcbQEZ5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NOl7YolOiMBrRlx4ftRt81KJMopbzXE6FQ="}</t>
+          <t>{"0": "Switch - Clutch Starter Safety", "1": "Switch - Neutral Safety"}</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
+        <is>
+          <t>{"Brand": "STD", "Partdesc_En": "Clutch Starter Safety Switch", "Partlongdesc_En": "Clutch Starter Safety Switch", "Pop": "B", "Qtyeach": 1}</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Voltage": "12V"}, "2": {"Connector Quantity": "1"}, "3": {"Connector Shape": "Square"}, "4": {"Connector Gender": "Female"}, "5": {"Terminal Quantity": "2"}, "6": {"Terminal Gender": "Male"}, "7": {"Terminal Type": "Blade"}, "8": {"Attachment Method": "Push-in"}, "9": {"Color/Finish": "Black"}, "10": {"Hardware included": "No"}, "11": {"Material": "Plastic"}, "12": {"Length - Inches": "2"}, "13": {"Gaskets Included": "No"}, "14": {"Length - mm": "50.8"}, "15": {"Number of Wires": "0"}}</t>
         </is>
@@ -1441,15 +1450,33 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>NS-56</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>STI</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NS-56</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>Clutch Starter Safety / Cruise Release Switch</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Clutch Starter Safety / Cruise Release Switch</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Acura Integra (01-86)
 Acura Legend (90-86)
@@ -1465,77 +1492,56 @@
 Honda S2000 (09-00)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=NS-56&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://www.standardbrand.com/en/ecatalog?part=NS56&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Switch - Clutch Starter Safety</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Switch - Cruise Control Release</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
         <is>
           <t>White, Silver</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>Switch</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>Plastic, Metal</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety / Cruise Release Switch</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety / Cruise Release Switch</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr">
         <is>
           <t>Male</t>
@@ -1559,15 +1565,20 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>NS56</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=d50IyUdamwToV1d4zmvKHCYF4nkLByFFki+PA/U85oaIAKGsCA2/TmL32PrFFzjl5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvo4AHxnu9pQRoMAeOApGqYBw==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=d50IyUdamwToV1d4zmvKHCYF4nkLByFFki+PA/U85oaIAKGsCA2/ThF0jsgbTXciMoN++3vibKFwt4L2VQIuqqI8gQqRXhksH/yt3+AH3F8YzNWgzy6OWffNEK97JV8GMCu7iz6+lF2F1PbcAC3LnIqmHJPOU2dpKle/TwcCBTbXgGrkH2EEptn/FL6o3EbdHVHBrg7+sNuISW+u5FsC5w==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=d50IyUdamwToV1d4zmvKHCYF4nkLByFFki+PA/U85oaIAKGsCA2/TjkvNhIZT5vY5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvo4AHxnu9pQRoMAeOApGqYBw==", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=d50IyUdamwToV1d4zmvKHCYF4nkLByFFki+PA/U85oaIAKGsCA2/To7EBIbNw+Iv5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvo4AHxnu9pQRoMAeOApGqYBw==", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=d50IyUdamwToV1d4zmvKHCYF4nkLByFFki+PA/U85oaIAKGsCA2/Tn5GBWYcbQEZ5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvo4AHxnu9pQRoMAeOApGqYBw==", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=d50IyUdamwToV1d4zmvKHCYF4nkLByFFki+PA/U85oaIAKGsCA2/Tv5WUrrDQwcI5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvo4AHxnu9pQRoMAeOApGqYBw==", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=d50IyUdamwToV1d4zmvKHCYF4nkLByFFki+PA/U85oaIAKGsCA2/Th7olNxq1vN15VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvo4AHxnu9pQRoMAeOApGqYBw==", "7": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=d50IyUdamwToV1d4zmvKHCYF4nkLByFFki+PA/U85oaIAKGsCA2/TkeG/D9mIZnF5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvo4AHxnu9pQRoMAeOApGqYBw=="}</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=d50IyUdamwToV1d4zmvKHCYF4nkLByFFki+PA/U85oaIAKGsCA2/TmL32PrFFzjl5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NOl7YolOiMBrRlx4ftRt81KJMopbzXE6FQ=", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=d50IyUdamwToV1d4zmvKHCYF4nkLByFFki+PA/U85oaIAKGsCA2/ThF0jsgbTXciMoN++3vibKFwt4L2VQIuqqI8gQqRXhksH/yt3+AH3F8YzNWgzy6OWffNEK97JV8GMCu7iz6+lF2F1PbcAC3LnIqmHJPOU2dpKle/TwcCBTZ1cPgjNth+fNqv/o6zO+1QoMlYBJv3GdEMAeOApGqYBw==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=d50IyUdamwToV1d4zmvKHCYF4nkLByFFki+PA/U85oaIAKGsCA2/TjkvNhIZT5vY5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NOl7YolOiMBrRlx4ftRt81KJMopbzXE6FQ=", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=d50IyUdamwToV1d4zmvKHCYF4nkLByFFki+PA/U85oaIAKGsCA2/To7EBIbNw+Iv5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NOl7YolOiMBrRlx4ftRt81KJMopbzXE6FQ=", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=d50IyUdamwToV1d4zmvKHCYF4nkLByFFki+PA/U85oaIAKGsCA2/Tn5GBWYcbQEZ5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NOl7YolOiMBrRlx4ftRt81KJMopbzXE6FQ=", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=d50IyUdamwToV1d4zmvKHCYF4nkLByFFki+PA/U85oaIAKGsCA2/Tv5WUrrDQwcI5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NOl7YolOiMBrRlx4ftRt81KJMopbzXE6FQ=", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=d50IyUdamwToV1d4zmvKHCYF4nkLByFFki+PA/U85oaIAKGsCA2/Th7olNxq1vN15VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NOl7YolOiMBrRlx4ftRt81KJMopbzXE6FQ=", "7": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=d50IyUdamwToV1d4zmvKHCYF4nkLByFFki+PA/U85oaIAKGsCA2/TkeG/D9mIZnF5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NOl7YolOiMBrRlx4ftRt81KJMopbzXE6FQ="}</t>
+          <t>{"0": "Switch - Clutch Starter Safety", "1": "Switch - Cruise Control Release"}</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
+        <is>
+          <t>{"Brand": "STI", "Partdesc_En": "Clutch Starter Safety / Cruise Release Switch", "Partlongdesc_En": "Clutch Starter Safety / Cruise Release Switch", "Pop": "D", "Qtyeach": 1}</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Quantity": "1"}, "2": {"Connector Gender": "Female"}, "3": {"Terminal Quantity": "2"}, "4": {"Terminal Gender": "Male"}, "5": {"Terminal Type": "Blade"}, "6": {"Color/Finish": "White, Silver"}, "7": {"Finish": "Plastic, Metal"}, "8": {"Contents": "Switch"}}</t>
         </is>
@@ -1579,86 +1590,79 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>NS-63</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>STD</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>NS-63</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Clutch Starter Safety Switch</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Clutch Starter Safety Switch</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>Ford Mustang (04-86)</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=NS-63&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://www.standardbrand.com/en/ecatalog?part=NS63&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Switch - Clutch Starter Safety</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
         <is>
           <t>Gray, White</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Female; Female</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Plastic</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Plastic</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr">
         <is>
           <t>Male</t>
@@ -1682,15 +1686,20 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>NS63</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA+guYlO0X7TiSYF4nkLByFFki+PA/U85oYcR0vi07RTDGL32PrFFzjl5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvo4AHxnu9pQRoMAeOApGqYBw==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA+guYlO0X7TiSYF4nkLByFFki+PA/U85oYcR0vi07RTDBF0jsgbTXciMoN++3vibKFwt4L2VQIuqqI8gQqRXhksH/yt3+AH3F8YzNWgzy6OWffNEK97JV8GMCu7iz6+lF2F1PbcAC3LnHxgEWExZzuIKle/TwcCBTbXgGrkH2EEptn/FL6o3EbdHVHBrg7+sNuISW+u5FsC5w==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA+guYlO0X7TiSYF4nkLByFFki+PA/U85oYcR0vi07RTDNZnjjigYWtLMoN++3vibKFwt4L2VQIuqqI8gQqRXhksH/yt3+AH3F8YzNWgzy6OWffNEK97JV8GMCu7iz6+lF2F1PbcAC3LnHxgEWExZzuIKle/TwcCBTbXgGrkH2EEptn/FL6o3EbdHVHBrg7+sNuISW+u5FsC5w==", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA+guYlO0X7TiSYF4nkLByFFki+PA/U85oYcR0vi07RTDJ2JJxdbvxArMoN++3vibKFwt4L2VQIuqqI8gQqRXhksH/yt3+AH3F8YzNWgzy6OWffNEK97JV8GMCu7iz6+lF2F1PbcAC3LnHxgEWExZzuIKle/TwcCBTbXgGrkH2EEptn/FL6o3EbdHVHBrg7+sNuISW+u5FsC5w==", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA+guYlO0X7TiSYF4nkLByFFki+PA/U85oYcR0vi07RTDI7EBIbNw+Iv5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvo4AHxnu9pQRoMAeOApGqYBw==", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA+guYlO0X7TiSYF4nkLByFFki+PA/U85oYcR0vi07RTDH5GBWYcbQEZ5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvo4AHxnu9pQRoMAeOApGqYBw==", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA+guYlO0X7TiSYF4nkLByFFki+PA/U85oYcR0vi07RTDP5WUrrDQwcI5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvo4AHxnu9pQRoMAeOApGqYBw==", "7": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA+guYlO0X7TiSYF4nkLByFFki+PA/U85oYcR0vi07RTDB7olNxq1vN15VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvo4AHxnu9pQRoMAeOApGqYBw==", "8": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA+guYlO0X7TiSYF4nkLByFFki+PA/U85oYcR0vi07RTDEeG/D9mIZnF5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvo4AHxnu9pQRoMAeOApGqYBw=="}</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA+guYlO0X7TiSYF4nkLByFFki+PA/U85oYcR0vi07RTDGL32PrFFzjl5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NOl7YolOiMBrRlx4ftRt81Ki1upR6Hr4Ok=", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA+guYlO0X7TiSYF4nkLByFFki+PA/U85oYcR0vi07RTDBF0jsgbTXciMoN++3vibKFwt4L2VQIuqqI8gQqRXhksH/yt3+AH3F8YzNWgzy6OWffNEK97JV8GMCu7iz6+lF2F1PbcAC3LnHxgEWExZzuIKle/TwcCBTZ1cPgjNth+fNqv/o6zO+1Q9C7N9/VLBPsMAeOApGqYBw==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA+guYlO0X7TiSYF4nkLByFFki+PA/U85oYcR0vi07RTDNZnjjigYWtLMoN++3vibKFwt4L2VQIuqqI8gQqRXhksH/yt3+AH3F8YzNWgzy6OWffNEK97JV8GMCu7iz6+lF2F1PbcAC3LnHxgEWExZzuIKle/TwcCBTZ1cPgjNth+fNqv/o6zO+1Q9C7N9/VLBPsMAeOApGqYBw==", "3": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA+guYlO0X7TiSYF4nkLByFFki+PA/U85oYcR0vi07RTDJ2JJxdbvxArMoN++3vibKFwt4L2VQIuqqI8gQqRXhksH/yt3+AH3F8YzNWgzy6OWffNEK97JV8GMCu7iz6+lF2F1PbcAC3LnHxgEWExZzuIKle/TwcCBTZ1cPgjNth+fNqv/o6zO+1Q9C7N9/VLBPsMAeOApGqYBw==", "4": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA+guYlO0X7TiSYF4nkLByFFki+PA/U85oYcR0vi07RTDI7EBIbNw+Iv5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NOl7YolOiMBrRlx4ftRt81Ki1upR6Hr4Ok=", "5": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA+guYlO0X7TiSYF4nkLByFFki+PA/U85oYcR0vi07RTDH5GBWYcbQEZ5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NOl7YolOiMBrRlx4ftRt81Ki1upR6Hr4Ok=", "6": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA+guYlO0X7TiSYF4nkLByFFki+PA/U85oYcR0vi07RTDP5WUrrDQwcI5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NOl7YolOiMBrRlx4ftRt81Ki1upR6Hr4Ok=", "7": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA+guYlO0X7TiSYF4nkLByFFki+PA/U85oYcR0vi07RTDB7olNxq1vN15VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NOl7YolOiMBrRlx4ftRt81Ki1upR6Hr4Ok=", "8": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA+guYlO0X7TiSYF4nkLByFFki+PA/U85oYcR0vi07RTDEeG/D9mIZnF5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NOl7YolOiMBrRlx4ftRt81Ki1upR6Hr4Ok="}</t>
+          <t>{"0": "Switch - Clutch Starter Safety"}</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
+        <is>
+          <t>{"Brand": "STD", "Partdesc_En": "Clutch Starter Safety Switch", "Partlongdesc_En": "Clutch Starter Safety Switch", "Pop": "D", "Qtyeach": 1}</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Quantity": "1"}, "2": {"Connector Gender": "Female; Female"}, "3": {"Terminal Quantity": "4"}, "4": {"Terminal Gender": "Male"}, "5": {"Terminal Type": "Blade"}, "6": {"Color/Finish": "Gray, White"}, "7": {"Finish": "Plastic"}}</t>
         </is>
@@ -1702,15 +1711,33 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>NS-68</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>STD</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>NS-68</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>Clutch Starter Safety Switch</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Clutch Starter Safety Switch</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Ford Escort (02-91)
 Ford Probe (97-90)
@@ -1718,73 +1745,48 @@
 Mercury Tracer (99-91)</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=NS-68&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://www.standardbrand.com/en/ecatalog?part=NS68&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Switch - Clutch Starter Safety</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
         <is>
           <t>White</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Plastic</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Plastic</t>
+        </is>
+      </c>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr">
         <is>
           <t>Male</t>
@@ -1808,15 +1810,20 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>NS68</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA/gqpjC6W/UDSYF4nkLByFFki+PA/U85obQ7e4vnmI/gWL32PrFFzjl5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvow0JaZkn3iE0MAeOApGqYBw==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA/gqpjC6W/UDSYF4nkLByFFki+PA/U85obQ7e4vnmI/gRF0jsgbTXciMoN++3vibKFwt4L2VQIuqqI8gQqRXhksH/yt3+AH3F8YzNWgzy6OWffNEK97JV8GMCu7iz6+lF2F1PbcAC3LnHxgEWExZzuIKle/TwcCBTbXgGrkH2EEptn/FL6o3EbddlgkskebxY2ISW+u5FsC5w==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA/gqpjC6W/UDSYF4nkLByFFki+PA/U85obQ7e4vnmI/gY7EBIbNw+Iv5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvow0JaZkn3iE0MAeOApGqYBw=="}</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA/gqpjC6W/UDSYF4nkLByFFki+PA/U85obQ7e4vnmI/gWL32PrFFzjl5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NOl7YolOiMBrRlx4ftRt81Ki1upR6Hr4Ok=", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA/gqpjC6W/UDSYF4nkLByFFki+PA/U85obQ7e4vnmI/gRF0jsgbTXciMoN++3vibKFwt4L2VQIuqqI8gQqRXhksH/yt3+AH3F8YzNWgzy6OWffNEK97JV8GMCu7iz6+lF2F1PbcAC3LnHxgEWExZzuIKle/TwcCBTZ1cPgjNth+fNqv/o6zO+1Q9C7N9/VLBPsMAeOApGqYBw==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA/gqpjC6W/UDSYF4nkLByFFki+PA/U85obQ7e4vnmI/gY7EBIbNw+Iv5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6CPZFsl1JUhuOw3ACMBE4NOl7YolOiMBrRlx4ftRt81Ki1upR6Hr4Ok="}</t>
+          <t>{"0": "Switch - Clutch Starter Safety"}</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
+        <is>
+          <t>{"Brand": "STD", "Partdesc_En": "Clutch Starter Safety Switch", "Partlongdesc_En": "Clutch Starter Safety Switch", "Pop": "W", "Qtyeach": 1}</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Quantity": "2"}, "2": {"Connector Gender": "Male"}, "3": {"Terminal Quantity": "2"}, "4": {"Terminal Gender": "Male"}, "5": {"Terminal Type": "Blade"}, "6": {"Color/Finish": "White"}, "7": {"Finish": "Plastic"}}</t>
         </is>
@@ -1828,78 +1835,71 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>NS-69</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>STI</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>NS-69</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Clutch Starter Safety Switch</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Clutch Starter Safety Switch</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>Acura Legend (95-91)</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=NS-69&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+          <t>https://www.standardbrand.com/en/ecatalog?part=NS69&amp;type=p&amp;search=s</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Switch - Clutch Starter Safety</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>Clutch Starter Safety Switch</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr">
         <is>
           <t>Male</t>
@@ -1923,15 +1923,20 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>NS69</t>
+          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA/sinPzlTbWbCYF4nkLByFFki+PA/U85oaxkRH3OBsgKGL32PrFFzjl5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvomZtBZagBVAcMAeOApGqYBw==", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA/sinPzlTbWbCYF4nkLByFFki+PA/U85oaxkRH3OBsgKDkvNhIZT5vY5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvomZtBZagBVAcMAeOApGqYBw==", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA/sinPzlTbWbCYF4nkLByFFki+PA/U85oaxkRH3OBsgKI7EBIbNw+Iv5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NP9bts2hxZrEYC7kAtOvyvomZtBZagBVAcMAeOApGqYBw=="}</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>{"0": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA/sinPzlTbWbCYF4nkLByFFki+PA/U85oaxkRH3OBsgKGL32PrFFzjl5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NOl7YolOiMBrRlx4ftRt81Ki1upR6Hr4Ok=", "1": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA/sinPzlTbWbCYF4nkLByFFki+PA/U85oaxkRH3OBsgKDkvNhIZT5vY5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NOl7YolOiMBrRlx4ftRt81Ki1upR6Hr4Ok=", "2": "https://ecatalog.smpcorp.com/ihgs/imagehandlergs.ashx?p1=QlsQKWF2yA/sinPzlTbWbCYF4nkLByFFki+PA/U85oaxkRH3OBsgKI7EBIbNw+Iv5VIjH+toj7m4MFyxxPbcYCb9GMryv61nnF+g5s4yuSwDxoJ3wM6CXnojbpNR9ZyLIIhFT3wvlhQYiGmyzTdB6KnruYWZQkXzOw3ACMBE4NOl7YolOiMBrRlx4ftRt81Ki1upR6Hr4Ok="}</t>
+          <t>{"0": "Switch - Clutch Starter Safety"}</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
+        <is>
+          <t>{"Brand": "STI", "Partdesc_En": "Clutch Starter Safety Switch", "Partlongdesc_En": "Clutch Starter Safety Switch", "Pop": "F", "Qtyeach": 1}</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Quantity": "1"}, "2": {"Connector Gender": "Female"}, "3": {"Terminal Quantity": "2"}, "4": {"Terminal Gender": "Male"}, "5": {"Terminal Type": "Blade Terminals"}}</t>
         </is>
